--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.102020.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2577,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2619,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5227,12 +5227,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5479,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6653,12 +6653,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7115,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7539,12 +7539,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7753,12 +7753,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8469,12 +8469,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8511,12 +8511,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9257,12 +9257,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9299,12 +9299,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9635,12 +9635,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10097,12 +10097,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10139,12 +10139,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10181,12 +10181,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10223,12 +10223,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10265,12 +10265,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10685,12 +10685,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10851,12 +10851,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10893,12 +10893,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10935,12 +10935,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11019,12 +11019,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12157,12 +12157,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12199,12 +12199,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13127,12 +13127,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13169,12 +13169,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13337,12 +13337,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13589,12 +13589,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13715,12 +13715,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14303,12 +14303,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14895,12 +14895,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15063,12 +15063,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15145,12 +15145,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16027,12 +16027,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16111,12 +16111,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16231,12 +16231,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16311,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16431,12 +16431,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16671,12 +16671,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16711,12 +16711,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16951,12 +16951,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16991,12 +16991,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17151,12 +17151,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17395,12 +17395,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17435,12 +17435,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17555,12 +17555,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17759,12 +17759,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17799,12 +17799,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18039,12 +18039,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18079,12 +18079,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18405,12 +18405,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18805,12 +18805,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19449,12 +19449,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20049,12 +20049,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20527,12 +20527,12 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20567,12 +20567,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20963,12 +20963,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21161,12 +21161,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21359,12 +21359,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21721,12 +21721,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21761,12 +21761,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22125,12 +22125,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22165,12 +22165,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22443,12 +22443,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22683,12 +22683,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22723,12 +22723,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23123,12 +23123,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23323,12 +23323,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23683,12 +23683,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23763,12 +23763,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24123,12 +24123,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24203,12 +24203,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24563,12 +24563,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24923,12 +24923,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25643,12 +25643,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25923,12 +25923,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26123,12 +26123,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26163,12 +26163,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26243,12 +26243,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26283,12 +26283,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26363,12 +26363,12 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26403,12 +26403,12 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26807,12 +26807,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27207,12 +27207,12 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27331,12 +27331,12 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27371,12 +27371,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28091,12 +28091,12 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28331,12 +28331,12 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28491,12 +28491,12 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28571,12 +28571,12 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28611,12 +28611,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28771,12 +28771,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28931,12 +28931,12 @@
       <c r="H694" t="inlineStr"/>
       <c r="I694" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29051,12 +29051,12 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30015,12 +30015,12 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30135,12 +30135,12 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30339,12 +30339,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30739,12 +30739,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31177,12 +31177,12 @@
       <c r="H750" t="inlineStr"/>
       <c r="I750" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31337,12 +31337,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31377,12 +31377,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31417,12 +31417,12 @@
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31457,12 +31457,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31497,12 +31497,12 @@
       <c r="H758" t="inlineStr"/>
       <c r="I758" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32377,12 +32377,12 @@
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33373,12 +33373,12 @@
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35013,12 +35013,12 @@
       <c r="H846" t="inlineStr"/>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35497,12 +35497,12 @@
       <c r="H858" t="inlineStr"/>
       <c r="I858" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35817,12 +35817,12 @@
       <c r="H866" t="inlineStr"/>
       <c r="I866" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35937,12 +35937,12 @@
       <c r="H869" t="inlineStr"/>
       <c r="I869" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36141,12 +36141,12 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36221,12 +36221,12 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36541,12 +36541,12 @@
       <c r="H884" t="inlineStr"/>
       <c r="I884" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
